--- a/factor analysis results/reer.xlsx
+++ b/factor analysis results/reer.xlsx
@@ -451,34 +451,34 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.005266564959112924</v>
+        <v>0.009713412767250447</v>
       </c>
       <c r="C4">
-        <v>0.002423373803476045</v>
+        <v>0.004032217944191637</v>
       </c>
       <c r="D4">
-        <v>0.005646741359500254</v>
+        <v>0.007020857153347443</v>
       </c>
       <c r="E4">
-        <v>0.005691839601609312</v>
+        <v>0.007952656570943649</v>
       </c>
       <c r="F4">
-        <v>0.003083949987554096</v>
+        <v>0.008322608833707567</v>
       </c>
       <c r="G4">
-        <v>0.007304618465203268</v>
+        <v>0.01787284200391208</v>
       </c>
       <c r="H4">
-        <v>0.0001521276918988704</v>
+        <v>0.006167948632158322</v>
       </c>
       <c r="I4">
-        <v>-0.0004413849292253505</v>
+        <v>0.006252786221005142</v>
       </c>
       <c r="J4">
-        <v>0.006166354070044619</v>
+        <v>0.01440752546098018</v>
       </c>
       <c r="K4">
-        <v>0.002095350399645873</v>
+        <v>0.009586262880721022</v>
       </c>
     </row>
   </sheetData>

--- a/factor analysis results/reer.xlsx
+++ b/factor analysis results/reer.xlsx
@@ -386,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,16 +402,14 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,63 +426,51 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.009713412767250447</v>
+        <v>0.008237511945334871</v>
       </c>
       <c r="C4">
-        <v>0.004032217944191637</v>
+        <v>0.005741652032354031</v>
       </c>
       <c r="D4">
-        <v>0.007020857153347443</v>
+        <v>0.007357543898553393</v>
       </c>
       <c r="E4">
-        <v>0.007952656570943649</v>
+        <v>0.009645294618850515</v>
       </c>
       <c r="F4">
-        <v>0.008322608833707567</v>
+        <v>0.01668172215606266</v>
       </c>
       <c r="G4">
-        <v>0.01787284200391208</v>
+        <v>0.006111143533269399</v>
       </c>
       <c r="H4">
-        <v>0.006167948632158322</v>
+        <v>0.0105130582725587</v>
       </c>
       <c r="I4">
-        <v>0.006252786221005142</v>
-      </c>
-      <c r="J4">
-        <v>0.01440752546098018</v>
-      </c>
-      <c r="K4">
-        <v>0.009586262880721022</v>
+        <v>0.01271031198261327</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
